--- a/المرحلة الثالثة.xlsx
+++ b/المرحلة الثالثة.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VB.net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B698692B-AC9C-48F8-95DC-D65B8C5DB587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B128B-75B8-4710-B9B1-E4B8C0E1F06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>احمد جميل علي ناهي</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>عملي نصف السنة من 15</t>
+  </si>
+  <si>
+    <t>مساعدة 1</t>
+  </si>
+  <si>
+    <t>مساعدة 2</t>
   </si>
   <si>
     <t xml:space="preserve">عملي فصل الثاني من 15 </t>
@@ -570,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -599,32 +605,36 @@
         <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -669,8 +679,12 @@
         <v>13</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="N2" s="1">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -696,7 +710,9 @@
         <f t="shared" ref="G3:G50" si="1">ROUNDUP(F3*35/30,0)</f>
         <v>7</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
       <c r="I3" s="1">
         <v>7</v>
       </c>
@@ -713,8 +729,12 @@
         <v>13</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -759,8 +779,12 @@
         <v>32</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -805,8 +829,12 @@
         <v>24</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -851,8 +879,12 @@
         <v>9.5</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -897,8 +929,12 @@
         <v>21</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -943,8 +979,12 @@
         <v>43.5</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -970,7 +1010,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9" s="1">
         <v>5</v>
       </c>
@@ -987,8 +1029,12 @@
         <v>9.5</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="N9" s="1">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1033,8 +1079,12 @@
         <v>32</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1079,8 +1129,12 @@
         <v>22</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="N11" s="1">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1125,8 +1179,12 @@
         <v>40</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1152,7 +1210,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="1">
         <v>5</v>
       </c>
@@ -1169,8 +1229,12 @@
         <v>16</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="N13" s="1">
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1215,8 +1279,12 @@
         <v>23.5</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1261,8 +1329,12 @@
         <v>28.5</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="N15" s="1">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1307,8 +1379,12 @@
         <v>23</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="N16" s="1">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1320,7 +1396,9 @@
       <c r="C17" s="4">
         <v>21</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1351,8 +1429,12 @@
         <v>33</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1397,8 +1479,12 @@
         <v>30.5</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="N18" s="1">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1443,8 +1529,12 @@
         <v>40.5</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="N19" s="1">
+        <v>4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1453,7 +1543,9 @@
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
       <c r="D20" s="3">
         <v>15</v>
       </c>
@@ -1476,7 +1568,7 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
@@ -1484,11 +1576,15 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1533,8 +1629,12 @@
         <v>14</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="N21" s="1">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1560,7 +1660,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
       <c r="I22" s="1">
         <v>4</v>
       </c>
@@ -1577,8 +1679,12 @@
         <v>13</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="N22" s="1">
+        <v>4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2</v>
+      </c>
       <c r="Q22" t="s">
         <v>49</v>
       </c>
@@ -1626,8 +1732,12 @@
         <v>24.5</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1672,8 +1782,12 @@
         <v>27.5</v>
       </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="N24" s="1">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1718,8 +1832,12 @@
         <v>15.5</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="N25" s="1">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1764,8 +1882,12 @@
         <v>10.5</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="N26" s="1">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1810,8 +1932,12 @@
         <v>24</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="N27" s="1">
+        <v>4</v>
+      </c>
+      <c r="O27" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1856,8 +1982,12 @@
         <v>25.5</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="N28" s="1">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1902,8 +2032,12 @@
         <v>20</v>
       </c>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="N29" s="1">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1929,7 +2063,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
       <c r="I30" s="1">
         <v>5</v>
       </c>
@@ -1946,8 +2082,12 @@
         <v>17.5</v>
       </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1992,8 +2132,12 @@
         <v>18</v>
       </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="N31" s="1">
+        <v>4</v>
+      </c>
+      <c r="O31" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2038,8 +2182,12 @@
         <v>18.5</v>
       </c>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="N32" s="1">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -2065,7 +2213,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
       <c r="I33" s="1">
         <v>5</v>
       </c>
@@ -2082,8 +2232,12 @@
         <v>14</v>
       </c>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="N33" s="1">
+        <v>5</v>
+      </c>
+      <c r="O33" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -2128,8 +2282,12 @@
         <v>34.5</v>
       </c>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="N34" s="1">
+        <v>5</v>
+      </c>
+      <c r="O34" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2174,8 +2332,12 @@
         <v>41.5</v>
       </c>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="N35" s="1">
+        <v>5</v>
+      </c>
+      <c r="O35" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -2220,8 +2382,12 @@
         <v>24</v>
       </c>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="N36" s="1">
+        <v>5</v>
+      </c>
+      <c r="O36" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -2266,8 +2432,12 @@
         <v>27</v>
       </c>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="N37" s="1">
+        <v>4</v>
+      </c>
+      <c r="O37" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -2312,8 +2482,12 @@
         <v>21.5</v>
       </c>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="N38" s="1">
+        <v>4</v>
+      </c>
+      <c r="O38" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -2358,8 +2532,12 @@
         <v>18</v>
       </c>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="N39" s="1">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -2404,8 +2582,12 @@
         <v>17.5</v>
       </c>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="N40" s="1">
+        <v>4</v>
+      </c>
+      <c r="O40" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -2450,8 +2632,12 @@
         <v>39</v>
       </c>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="N41" s="1">
+        <v>3</v>
+      </c>
+      <c r="O41" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -2496,8 +2682,12 @@
         <v>36</v>
       </c>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="N42" s="1">
+        <v>5</v>
+      </c>
+      <c r="O42" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -2542,8 +2732,12 @@
         <v>24.5</v>
       </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="N43" s="1">
+        <v>2</v>
+      </c>
+      <c r="O43" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -2588,8 +2782,12 @@
         <v>46.5</v>
       </c>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="N44" s="1">
+        <v>5</v>
+      </c>
+      <c r="O44" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -2634,8 +2832,12 @@
         <v>28</v>
       </c>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="N45" s="1">
+        <v>4</v>
+      </c>
+      <c r="O45" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -2654,7 +2856,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
       <c r="G46" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2678,25 +2882,39 @@
         <v>20</v>
       </c>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="N46" s="1">
+        <v>3</v>
+      </c>
+      <c r="O46" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
       <c r="E47" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
       <c r="G47" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
       <c r="J47" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2719,36 +2937,36 @@
         <v>3</v>
       </c>
       <c r="D48" s="3">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F48" s="2">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F48" s="2">
-        <v>5</v>
-      </c>
-      <c r="G48" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
       <c r="H48" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I48" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2798,8 +3016,12 @@
       <c r="C50" s="4">
         <v>14</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
       <c r="F50" s="2">
         <v>16</v>
       </c>
@@ -2815,7 +3037,7 @@
       </c>
       <c r="J50" s="1">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>16.5</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="3"/>
@@ -2823,7 +3045,7 @@
       </c>
       <c r="L50" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/المرحلة الثالثة.xlsx
+++ b/المرحلة الثالثة.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VB.net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B128B-75B8-4710-B9B1-E4B8C0E1F06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE9B001-92AF-4E21-876F-685531A3FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>احمد جميل علي ناهي</t>
   </si>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t>عملي نصف السنة من 15</t>
-  </si>
-  <si>
-    <t>مساعدة 1</t>
-  </si>
-  <si>
-    <t>مساعدة 2</t>
   </si>
   <si>
     <t xml:space="preserve">عملي فصل الثاني من 15 </t>
@@ -576,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F41" workbookViewId="0">
+      <selection activeCell="M52" sqref="M1:O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -605,36 +599,32 @@
         <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -679,12 +669,8 @@
         <v>13</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1">
-        <v>5</v>
-      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -729,12 +715,8 @@
         <v>13</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="1">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1">
-        <v>3</v>
-      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -779,12 +761,8 @@
         <v>32</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1">
-        <v>5</v>
-      </c>
-      <c r="O4" s="1">
-        <v>8</v>
-      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -829,12 +807,8 @@
         <v>24</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>4</v>
-      </c>
-      <c r="O5" s="1">
-        <v>6</v>
-      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -879,12 +853,8 @@
         <v>9.5</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1">
-        <v>4</v>
-      </c>
-      <c r="O6" s="1">
-        <v>5</v>
-      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -929,12 +899,8 @@
         <v>21</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>4</v>
-      </c>
-      <c r="O7" s="1">
-        <v>7</v>
-      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -979,12 +945,8 @@
         <v>43.5</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>5</v>
-      </c>
-      <c r="O8" s="1">
-        <v>9</v>
-      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1029,12 +991,8 @@
         <v>9.5</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1">
-        <v>3</v>
-      </c>
-      <c r="O9" s="1">
-        <v>2</v>
-      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1079,12 +1037,8 @@
         <v>32</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>3</v>
-      </c>
-      <c r="O10" s="1">
-        <v>4</v>
-      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1129,12 +1083,8 @@
         <v>22</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1">
-        <v>4</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2</v>
-      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1179,12 +1129,8 @@
         <v>40</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1">
-        <v>5</v>
-      </c>
-      <c r="O12" s="1">
-        <v>8</v>
-      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1229,12 +1175,8 @@
         <v>16</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
-        <v>3</v>
-      </c>
-      <c r="O13" s="1">
-        <v>2</v>
-      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1279,12 +1221,8 @@
         <v>23.5</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1">
-        <v>5</v>
-      </c>
-      <c r="O14" s="1">
-        <v>2</v>
-      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1329,12 +1267,8 @@
         <v>28.5</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1">
-        <v>4</v>
-      </c>
-      <c r="O15" s="1">
-        <v>8</v>
-      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1379,12 +1313,8 @@
         <v>23</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1">
-        <v>3</v>
-      </c>
-      <c r="O16" s="1">
-        <v>3</v>
-      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1429,12 +1359,8 @@
         <v>33</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="1">
-        <v>3</v>
-      </c>
-      <c r="O17" s="1">
-        <v>3</v>
-      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1479,12 +1405,8 @@
         <v>30.5</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="1">
-        <v>5</v>
-      </c>
-      <c r="O18" s="1">
-        <v>4</v>
-      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1529,12 +1451,8 @@
         <v>40.5</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="1">
-        <v>4</v>
-      </c>
-      <c r="O19" s="1">
-        <v>6</v>
-      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1579,12 +1497,8 @@
         <v>25</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="1">
-        <v>5</v>
-      </c>
-      <c r="O20" s="1">
-        <v>8</v>
-      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1629,12 +1543,8 @@
         <v>14</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="1">
-        <v>3</v>
-      </c>
-      <c r="O21" s="1">
-        <v>7</v>
-      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1679,12 +1589,8 @@
         <v>13</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="1">
-        <v>4</v>
-      </c>
-      <c r="O22" s="1">
-        <v>2</v>
-      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="Q22" t="s">
         <v>49</v>
       </c>
@@ -1732,12 +1638,8 @@
         <v>24.5</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="1">
-        <v>2</v>
-      </c>
-      <c r="O23" s="1">
-        <v>5</v>
-      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1782,12 +1684,8 @@
         <v>27.5</v>
       </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="1">
-        <v>3</v>
-      </c>
-      <c r="O24" s="1">
-        <v>6</v>
-      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1832,12 +1730,8 @@
         <v>15.5</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1">
-        <v>3</v>
-      </c>
-      <c r="O25" s="1">
-        <v>7</v>
-      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1882,12 +1776,8 @@
         <v>10.5</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="1">
-        <v>4</v>
-      </c>
-      <c r="O26" s="1">
-        <v>3</v>
-      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1932,12 +1822,8 @@
         <v>24</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="1">
-        <v>4</v>
-      </c>
-      <c r="O27" s="1">
-        <v>5</v>
-      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1982,12 +1868,8 @@
         <v>25.5</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="1">
-        <v>4</v>
-      </c>
-      <c r="O28" s="1">
-        <v>4</v>
-      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2032,12 +1914,8 @@
         <v>20</v>
       </c>
       <c r="M29" s="1"/>
-      <c r="N29" s="1">
-        <v>4</v>
-      </c>
-      <c r="O29" s="1">
-        <v>9</v>
-      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2082,12 +1960,8 @@
         <v>17.5</v>
       </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="1">
-        <v>3</v>
-      </c>
-      <c r="O30" s="1">
-        <v>6</v>
-      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2132,12 +2006,8 @@
         <v>18</v>
       </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="1">
-        <v>4</v>
-      </c>
-      <c r="O31" s="1">
-        <v>3</v>
-      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2182,12 +2052,8 @@
         <v>18.5</v>
       </c>
       <c r="M32" s="1"/>
-      <c r="N32" s="1">
-        <v>3</v>
-      </c>
-      <c r="O32" s="1">
-        <v>8</v>
-      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -2232,12 +2098,8 @@
         <v>14</v>
       </c>
       <c r="M33" s="1"/>
-      <c r="N33" s="1">
-        <v>5</v>
-      </c>
-      <c r="O33" s="1">
-        <v>4</v>
-      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -2282,12 +2144,8 @@
         <v>34.5</v>
       </c>
       <c r="M34" s="1"/>
-      <c r="N34" s="1">
-        <v>5</v>
-      </c>
-      <c r="O34" s="1">
-        <v>10</v>
-      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2332,12 +2190,8 @@
         <v>41.5</v>
       </c>
       <c r="M35" s="1"/>
-      <c r="N35" s="1">
-        <v>5</v>
-      </c>
-      <c r="O35" s="1">
-        <v>7</v>
-      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -2382,12 +2236,8 @@
         <v>24</v>
       </c>
       <c r="M36" s="1"/>
-      <c r="N36" s="1">
-        <v>5</v>
-      </c>
-      <c r="O36" s="1">
-        <v>10</v>
-      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -2432,12 +2282,8 @@
         <v>27</v>
       </c>
       <c r="M37" s="1"/>
-      <c r="N37" s="1">
-        <v>4</v>
-      </c>
-      <c r="O37" s="1">
-        <v>7</v>
-      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -2482,12 +2328,8 @@
         <v>21.5</v>
       </c>
       <c r="M38" s="1"/>
-      <c r="N38" s="1">
-        <v>4</v>
-      </c>
-      <c r="O38" s="1">
-        <v>4</v>
-      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -2532,12 +2374,8 @@
         <v>18</v>
       </c>
       <c r="M39" s="1"/>
-      <c r="N39" s="1">
-        <v>3</v>
-      </c>
-      <c r="O39" s="1">
-        <v>5</v>
-      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -2582,12 +2420,8 @@
         <v>17.5</v>
       </c>
       <c r="M40" s="1"/>
-      <c r="N40" s="1">
-        <v>4</v>
-      </c>
-      <c r="O40" s="1">
-        <v>6</v>
-      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -2632,12 +2466,8 @@
         <v>39</v>
       </c>
       <c r="M41" s="1"/>
-      <c r="N41" s="1">
-        <v>3</v>
-      </c>
-      <c r="O41" s="1">
-        <v>7</v>
-      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -2682,12 +2512,8 @@
         <v>36</v>
       </c>
       <c r="M42" s="1"/>
-      <c r="N42" s="1">
-        <v>5</v>
-      </c>
-      <c r="O42" s="1">
-        <v>9</v>
-      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -2732,12 +2558,8 @@
         <v>24.5</v>
       </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="1">
-        <v>2</v>
-      </c>
-      <c r="O43" s="1">
-        <v>7</v>
-      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -2782,12 +2604,8 @@
         <v>46.5</v>
       </c>
       <c r="M44" s="1"/>
-      <c r="N44" s="1">
-        <v>5</v>
-      </c>
-      <c r="O44" s="1">
-        <v>10</v>
-      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -2832,12 +2650,8 @@
         <v>28</v>
       </c>
       <c r="M45" s="1"/>
-      <c r="N45" s="1">
-        <v>4</v>
-      </c>
-      <c r="O45" s="1">
-        <v>7</v>
-      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -2882,12 +2696,8 @@
         <v>20</v>
       </c>
       <c r="M46" s="1"/>
-      <c r="N46" s="1">
-        <v>3</v>
-      </c>
-      <c r="O46" s="1">
-        <v>6</v>
-      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>

--- a/المرحلة الثالثة.xlsx
+++ b/المرحلة الثالثة.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VB.net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FB34E1-D66B-4FAA-8ADA-306F11913E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD18E3B-8595-4F4D-BD62-80D07A6C7B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1042,17 +1042,26 @@
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
